--- a/ADA4_CANUL IBARRA_RICARDO NICOLÁS.xlsx
+++ b/ADA4_CANUL IBARRA_RICARDO NICOLÁS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HikingCarrot\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HikingCarrot\Documents\GitHub\Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>Nombre</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>&gt;=85</t>
+  </si>
+  <si>
+    <t>NMBMNB</t>
   </si>
 </sst>
 </file>
@@ -647,8 +650,8 @@
   </sheetPr>
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2685,6 +2688,11 @@
     <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C49" s="8"/>
       <c r="M49" s="8"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="53" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C53" s="10"/>
